--- a/staff.xlsx
+++ b/staff.xlsx
@@ -15,198 +15,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="195">
   <si>
     <t>Employment ID</t>
   </si>
   <si>
+    <t>STM/5586/2014</t>
+  </si>
+  <si>
+    <t>STM/5215/2013</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>STM/5663/2018</t>
+  </si>
+  <si>
+    <t>STM/5604/2012</t>
+  </si>
+  <si>
+    <t>STM/5037/2013</t>
+  </si>
+  <si>
+    <t>STM/5614/2015</t>
+  </si>
+  <si>
+    <t>STM/5719/2010</t>
+  </si>
+  <si>
+    <t>STM/5219/2017</t>
+  </si>
+  <si>
+    <t>STM/5777/2018</t>
+  </si>
+  <si>
     <t>STM/5351/2018</t>
   </si>
   <si>
-    <t>STM/5037/2013</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>STM/5927/2015</t>
+  </si>
+  <si>
+    <t>STM/5050/2015</t>
+  </si>
+  <si>
+    <t>STM/5085/2016</t>
+  </si>
+  <si>
+    <t>STM/5729/2016</t>
+  </si>
+  <si>
+    <t>STM/5141/2018</t>
+  </si>
+  <si>
+    <t>STM/5074/2013</t>
+  </si>
+  <si>
+    <t>STM/5861/2018</t>
+  </si>
+  <si>
+    <t>STM/5464/2012</t>
+  </si>
+  <si>
+    <t>STM/5769/2015</t>
   </si>
   <si>
     <t>STM/5825/2010</t>
   </si>
   <si>
-    <t>STM/5586/2014</t>
-  </si>
-  <si>
-    <t>STM/5614/2015</t>
-  </si>
-  <si>
-    <t>STM/5141/2018</t>
-  </si>
-  <si>
-    <t>STM/5861/2018</t>
-  </si>
-  <si>
-    <t>STM/5729/2016</t>
-  </si>
-  <si>
-    <t>STM/5663/2018</t>
-  </si>
-  <si>
-    <t>STM/5769/2015</t>
-  </si>
-  <si>
-    <t>STM/5215/2013</t>
-  </si>
-  <si>
-    <t>STM/5464/2012</t>
-  </si>
-  <si>
-    <t>STM/5719/2010</t>
-  </si>
-  <si>
-    <t>STM/5074/2013</t>
-  </si>
-  <si>
-    <t>STM/5777/2018</t>
-  </si>
-  <si>
-    <t>STM/5050/2015</t>
-  </si>
-  <si>
-    <t>STM/5927/2015</t>
-  </si>
-  <si>
-    <t>STM/5085/2016</t>
-  </si>
-  <si>
-    <t>STM/5219/2017</t>
-  </si>
-  <si>
-    <t>STM/5604/2012</t>
-  </si>
-  <si>
     <t>Date of birth</t>
   </si>
   <si>
+    <t>1980-12-21</t>
+  </si>
+  <si>
+    <t>1992-10-04</t>
+  </si>
+  <si>
+    <t>1980-09-07</t>
+  </si>
+  <si>
+    <t>1979-07-07</t>
+  </si>
+  <si>
+    <t>1979-12-14</t>
+  </si>
+  <si>
+    <t>1984-03-27</t>
+  </si>
+  <si>
+    <t>1984-12-31</t>
+  </si>
+  <si>
+    <t>1987-06-19</t>
+  </si>
+  <si>
+    <t>1979-04-20</t>
+  </si>
+  <si>
     <t>1992-10-16</t>
   </si>
   <si>
-    <t>1979-12-14</t>
+    <t>1991-06-25</t>
+  </si>
+  <si>
+    <t>1979-03-31</t>
+  </si>
+  <si>
+    <t>1978-03-02</t>
+  </si>
+  <si>
+    <t>1982-09-14</t>
+  </si>
+  <si>
+    <t>1983-05-02</t>
+  </si>
+  <si>
+    <t>1990-08-01</t>
+  </si>
+  <si>
+    <t>1985-06-06</t>
+  </si>
+  <si>
+    <t>1981-03-20</t>
+  </si>
+  <si>
+    <t>1991-09-19</t>
   </si>
   <si>
     <t>1986-10-23</t>
   </si>
   <si>
-    <t>1980-12-21</t>
-  </si>
-  <si>
-    <t>1984-03-27</t>
-  </si>
-  <si>
-    <t>1983-05-02</t>
-  </si>
-  <si>
-    <t>1985-06-06</t>
-  </si>
-  <si>
-    <t>1982-09-14</t>
-  </si>
-  <si>
-    <t>1980-09-07</t>
-  </si>
-  <si>
-    <t>1991-09-19</t>
-  </si>
-  <si>
-    <t>1992-10-04</t>
-  </si>
-  <si>
-    <t>1981-03-20</t>
-  </si>
-  <si>
-    <t>1984-12-31</t>
-  </si>
-  <si>
-    <t>1990-08-01</t>
-  </si>
-  <si>
-    <t>1979-04-20</t>
-  </si>
-  <si>
-    <t>1979-03-31</t>
-  </si>
-  <si>
-    <t>1991-06-25</t>
-  </si>
-  <si>
-    <t>1978-03-02</t>
-  </si>
-  <si>
-    <t>1987-06-19</t>
-  </si>
-  <si>
-    <t>1979-07-07</t>
-  </si>
-  <si>
     <t>Date of employment</t>
   </si>
   <si>
-    <t>2018-02-25T13:45:36</t>
-  </si>
-  <si>
-    <t>2013-07-15T14:21:27</t>
-  </si>
-  <si>
-    <t>2010-08-26T10:46:50</t>
-  </si>
-  <si>
-    <t>2014-04-22T11:52:41</t>
-  </si>
-  <si>
-    <t>2015-02-02T14:12:24</t>
-  </si>
-  <si>
-    <t>2018-02-13T11:14:19</t>
-  </si>
-  <si>
-    <t>2018-01-26T10:50:28</t>
-  </si>
-  <si>
-    <t>2016-10-16T10:35:33</t>
-  </si>
-  <si>
-    <t>2018-10-28T10:48:38</t>
-  </si>
-  <si>
-    <t>2015-05-07T11:26:44</t>
-  </si>
-  <si>
-    <t>2013-03-29T11:13:35</t>
-  </si>
-  <si>
-    <t>2012-01-06T16:29:39</t>
-  </si>
-  <si>
-    <t>2010-06-16T12:18:46</t>
-  </si>
-  <si>
-    <t>2013-07-28T11:39:23</t>
-  </si>
-  <si>
-    <t>2018-03-25T12:47:34</t>
-  </si>
-  <si>
-    <t>2015-11-20T10:51:21</t>
-  </si>
-  <si>
-    <t>2015-09-17T10:44:49</t>
-  </si>
-  <si>
-    <t>2016-10-15T12:23:48</t>
-  </si>
-  <si>
-    <t>2017-09-17T13:53:45</t>
-  </si>
-  <si>
-    <t>2012-03-02T10:22:17</t>
+    <t>2014-04-22T16:23:35</t>
+  </si>
+  <si>
+    <t>2013-03-29T13:55:38</t>
+  </si>
+  <si>
+    <t>2018-10-28T14:47:41</t>
+  </si>
+  <si>
+    <t>2012-03-02T12:26:36</t>
+  </si>
+  <si>
+    <t>2013-07-15T15:49:28</t>
+  </si>
+  <si>
+    <t>2015-02-02T10:37:34</t>
+  </si>
+  <si>
+    <t>2010-06-16T12:51:33</t>
+  </si>
+  <si>
+    <t>2017-09-17T14:13:43</t>
+  </si>
+  <si>
+    <t>2018-03-25T15:41:45</t>
+  </si>
+  <si>
+    <t>2018-02-25T10:44:19</t>
+  </si>
+  <si>
+    <t>2015-09-17T14:17:47</t>
+  </si>
+  <si>
+    <t>2015-11-20T11:35:46</t>
+  </si>
+  <si>
+    <t>2016-10-15T10:29:27</t>
+  </si>
+  <si>
+    <t>2016-10-16T11:45:17</t>
+  </si>
+  <si>
+    <t>2018-02-13T11:22:49</t>
+  </si>
+  <si>
+    <t>2013-07-28T13:48:24</t>
+  </si>
+  <si>
+    <t>2018-01-26T13:15:44</t>
+  </si>
+  <si>
+    <t>2012-01-06T13:25:21</t>
+  </si>
+  <si>
+    <t>2015-05-07T10:54:23</t>
+  </si>
+  <si>
+    <t>2010-08-26T10:50:50</t>
   </si>
   <si>
     <t>County, city</t>
@@ -215,189 +215,189 @@
     <t>Nigeria, Abuja</t>
   </si>
   <si>
+    <t>Kenya, Nairobi</t>
+  </si>
+  <si>
     <t>South Africa, J'berg</t>
   </si>
   <si>
+    <t>Kenya, Narobi</t>
+  </si>
+  <si>
+    <t>Egypt, Cairo</t>
+  </si>
+  <si>
     <t>Nigeria, Lagos</t>
   </si>
   <si>
-    <t>Kenya, Narobi</t>
-  </si>
-  <si>
-    <t>Egypt, Cairo</t>
-  </si>
-  <si>
     <t>South Africa, Johanesberg</t>
   </si>
   <si>
-    <t>Kenya, Nairobi</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Married or not</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Highest level of education</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Doctoral</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>MSc</t>
+  </si>
+  <si>
+    <t>Bachelors</t>
+  </si>
+  <si>
+    <t>Bachelers</t>
+  </si>
+  <si>
+    <t>Experience in years</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Sacco member</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Annual income in KES</t>
+  </si>
+  <si>
+    <t>KES 547992</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>KES 266232</t>
+  </si>
+  <si>
+    <t>KES 316032</t>
+  </si>
+  <si>
+    <t>KES 348396</t>
+  </si>
+  <si>
+    <t>KES 272064</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>KES 575424</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>KES 287412</t>
+  </si>
+  <si>
+    <t>KES 354108</t>
+  </si>
+  <si>
+    <t>KES 398700</t>
+  </si>
+  <si>
+    <t>KES 353472</t>
+  </si>
+  <si>
+    <t>KES 527736</t>
+  </si>
+  <si>
+    <t>KES 255948</t>
+  </si>
+  <si>
+    <t>KES 370140</t>
+  </si>
+  <si>
+    <t>KES 383040</t>
+  </si>
+  <si>
+    <t>KES 395124</t>
+  </si>
+  <si>
+    <t>KES 304008</t>
+  </si>
+  <si>
+    <t>KES 428628</t>
+  </si>
+  <si>
+    <t>Which programming laguages have you used?</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Programming: Python</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>Divorced</t>
-  </si>
-  <si>
-    <t>Highest level of education</t>
-  </si>
-  <si>
-    <t>Bachelors</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>Masters</t>
-  </si>
-  <si>
-    <t>MSc</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Bachelers</t>
-  </si>
-  <si>
-    <t>Doctoral</t>
-  </si>
-  <si>
-    <t>Experience in years</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Sacco member</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Annual income in KES</t>
-  </si>
-  <si>
-    <t>KES 596184</t>
-  </si>
-  <si>
-    <t>KES 527736</t>
-  </si>
-  <si>
-    <t>KES 285396</t>
-  </si>
-  <si>
-    <t>KES 346296</t>
-  </si>
-  <si>
-    <t>KES 575424</t>
-  </si>
-  <si>
-    <t>KES 455772</t>
-  </si>
-  <si>
-    <t>KES 266232</t>
-  </si>
-  <si>
-    <t>KES 290112</t>
-  </si>
-  <si>
-    <t>KES 403956</t>
-  </si>
-  <si>
-    <t>KES 255948</t>
-  </si>
-  <si>
-    <t>KES 445668</t>
-  </si>
-  <si>
-    <t>KES 316032</t>
-  </si>
-  <si>
-    <t>KES 283008</t>
-  </si>
-  <si>
-    <t>KES 575784</t>
-  </si>
-  <si>
-    <t>KES 428628</t>
-  </si>
-  <si>
-    <t>KES 253740</t>
-  </si>
-  <si>
-    <t>KES 547992</t>
-  </si>
-  <si>
-    <t>KES 398700</t>
-  </si>
-  <si>
-    <t>KES 596664</t>
-  </si>
-  <si>
-    <t>KES 271980</t>
-  </si>
-  <si>
-    <t>Which programming laguages have you used?</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Programming: Python</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -416,51 +416,51 @@
     <t>Programming: Others</t>
   </si>
   <si>
+    <t>Excel, R</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
-    <t>Excel, R</t>
-  </si>
-  <si>
     <t>Matlab</t>
   </si>
   <si>
     <t>List all the cloud platforms that you have heard of</t>
   </si>
   <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>ibm</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>AWS, Google</t>
+  </si>
+  <si>
+    <t>Google, AWS, Azure</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Google Platform</t>
+  </si>
+  <si>
     <t>Digital ocean</t>
   </si>
   <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Google, AWS, Azure</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>AWS, Google</t>
-  </si>
-  <si>
     <t>oracle, AWS</t>
   </si>
   <si>
-    <t>ibm</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
     <t>Amazon Web Services</t>
   </si>
   <si>
-    <t>Google Platform</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
     <t>Publications in 2018</t>
   </si>
   <si>
@@ -473,19 +473,16 @@
     <t>Publications in 2021</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Publications in 2022</t>
@@ -669,22 +666,22 @@
         <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
         <v>128</v>
@@ -714,7 +711,7 @@
         <v>151</v>
       </c>
       <c r="V1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
@@ -737,25 +734,25 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N2" t="s">
         <v>77</v>
@@ -769,21 +766,17 @@
       <c r="Q2" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="0">
-        <v>0</v>
-      </c>
+      <c r="R2" s="0"/>
       <c r="S2" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="s">
         <v>152</v>
       </c>
-      <c r="V2" s="0">
-        <v>1</v>
-      </c>
+      <c r="V2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -796,40 +789,40 @@
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L3" t="s">
         <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="N3" t="s">
         <v>127</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="P3" t="s">
         <v>3</v>
@@ -838,19 +831,17 @@
         <v>138</v>
       </c>
       <c r="R3" s="0">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="S3" s="0">
         <v>0</v>
       </c>
-      <c r="T3" s="0">
-        <v>2</v>
-      </c>
+      <c r="T3" s="0"/>
       <c r="U3" t="s">
         <v>153</v>
       </c>
       <c r="V3" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -885,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -924,62 +915,58 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="0">
-        <v>2</v>
-      </c>
+      <c r="R5" s="0"/>
       <c r="S5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" s="0">
-        <v>3</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="V5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -992,61 +979,61 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
         <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R6" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U6" t="s">
         <v>152</v>
       </c>
       <c r="V6" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1060,34 +1047,34 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
         <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s">
         <v>77</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N7" t="s">
         <v>127</v>
@@ -1096,25 +1083,23 @@
         <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="s">
-        <v>141</v>
-      </c>
-      <c r="R7" s="0">
-        <v>0</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="R7" s="0"/>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V7" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1149,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s">
         <v>3</v>
@@ -1194,55 +1179,55 @@
         <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M9" t="s">
         <v>77</v>
       </c>
       <c r="N9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="Q9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="R9" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9" s="0">
         <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1262,52 +1247,52 @@
         <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="Q10" t="s">
         <v>142</v>
       </c>
       <c r="R10" s="0">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="S10" s="0">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0">
         <v>4</v>
       </c>
-      <c r="T10" s="0">
-        <v>2</v>
-      </c>
       <c r="U10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V10" s="0">
         <v>2</v>
@@ -1324,325 +1309,317 @@
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
         <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="R11" s="0">
         <v>0</v>
       </c>
       <c r="S11" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="0">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="V11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
         <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="P12" t="s">
         <v>3</v>
       </c>
       <c r="Q12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="R12" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="S12" s="0">
-        <v>4</v>
-      </c>
-      <c r="T12" s="0">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T12" s="0"/>
       <c r="U12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V12" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
         <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="Q13" t="s">
         <v>144</v>
       </c>
       <c r="R13" s="0">
-        <v>1</v>
-      </c>
-      <c r="S13" s="0">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S13" s="0"/>
       <c r="T13" s="0">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V13" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
         <v>77</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="Q14" t="s">
-        <v>144</v>
-      </c>
-      <c r="R14" s="0">
-        <v>22</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="R14" s="0"/>
       <c r="S14" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M15" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="N15" t="s">
         <v>127</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="Q15" t="s">
         <v>144</v>
       </c>
       <c r="R15" s="0">
-        <v>22</v>
-      </c>
-      <c r="S15" s="0">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S15" s="0"/>
       <c r="T15" s="0">
         <v>0</v>
       </c>
@@ -1655,144 +1632,148 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="M16" t="s">
         <v>77</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" t="s">
         <v>3</v>
       </c>
       <c r="Q16" t="s">
-        <v>145</v>
-      </c>
-      <c r="R16" s="0">
-        <v>1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="R16" s="0"/>
       <c r="S16" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T16" s="0">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="V16" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="M17" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="O17" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="P17" t="s">
         <v>3</v>
       </c>
       <c r="Q17" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
+        <v>140</v>
+      </c>
+      <c r="R17" s="0">
+        <v>2</v>
+      </c>
+      <c r="S17" s="0">
+        <v>4</v>
+      </c>
       <c r="T17" s="0"/>
       <c r="U17" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="0"/>
+        <v>154</v>
+      </c>
+      <c r="V17" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
@@ -1801,40 +1782,40 @@
         <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R18" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" s="0">
         <v>0</v>
@@ -1843,63 +1824,63 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="V18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
         <v>97</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="M19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="Q19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -1908,78 +1889,78 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V19" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
         <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q20" t="s">
         <v>146</v>
       </c>
       <c r="R20" s="0">
+        <v>0</v>
+      </c>
+      <c r="S20" s="0">
         <v>2</v>
       </c>
-      <c r="S20" s="0">
-        <v>1</v>
-      </c>
       <c r="T20" s="0">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="U20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -1987,81 +1968,81 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s">
         <v>76</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="N21" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s">
         <v>3</v>
       </c>
       <c r="Q21" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="R21" s="0">
         <v>3</v>
       </c>
       <c r="S21" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T21" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>66</v>
@@ -2070,43 +2051,43 @@
         <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s">
         <v>76</v>
       </c>
       <c r="M22" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="N22" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" t="s">
         <v>3</v>
       </c>
       <c r="Q22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="R22" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -2118,24 +2099,24 @@
         <v>153</v>
       </c>
       <c r="V22" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
         <v>76</v>
@@ -2144,90 +2125,88 @@
         <v>83</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I23" t="s">
         <v>76</v>
       </c>
       <c r="J23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="M23" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="N23" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="O23" t="s">
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="s">
         <v>146</v>
       </c>
       <c r="R23" s="0">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="S23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U23" t="s">
-        <v>154</v>
-      </c>
-      <c r="V23" s="0">
-        <v>0</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="V23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
         <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
         <v>120</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N24" t="s">
         <v>76</v>
@@ -2239,158 +2218,156 @@
         <v>3</v>
       </c>
       <c r="Q24" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="R24" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24" s="0">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="U24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="V24" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
         <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s">
         <v>121</v>
       </c>
       <c r="K25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="M25" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="R25" s="0">
         <v>0</v>
       </c>
-      <c r="S25" s="0">
-        <v>0</v>
-      </c>
+      <c r="S25" s="0"/>
       <c r="T25" s="0">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V25" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>73</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s">
         <v>76</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N26" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="Q26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R26" s="0">
         <v>0</v>
       </c>
       <c r="S26" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" s="0">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="U26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2404,46 +2381,46 @@
         <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="J27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M27" t="s">
         <v>77</v>
       </c>
       <c r="N27" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="O27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -2455,79 +2432,71 @@
         <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V27" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="M28" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="s">
-        <v>142</v>
-      </c>
-      <c r="R28" s="0">
-        <v>0</v>
-      </c>
-      <c r="S28" s="0">
-        <v>0</v>
-      </c>
-      <c r="T28" s="0">
-        <v>97</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
       <c r="U28" t="s">
-        <v>96</v>
-      </c>
-      <c r="V28" s="0">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="V28" s="0"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2540,10 +2509,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
@@ -2551,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -2559,7 +2528,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
@@ -2567,7 +2536,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
@@ -2575,7 +2544,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -2583,7 +2552,7 @@
         <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -2591,55 +2560,55 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
@@ -2647,7 +2616,7 @@
         <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -2655,7 +2624,7 @@
         <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
@@ -2663,7 +2632,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -2671,15 +2640,15 @@
         <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -2687,7 +2656,7 @@
         <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -2695,7 +2664,7 @@
         <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
@@ -2703,7 +2672,7 @@
         <v>150</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -2711,15 +2680,15 @@
         <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2733,54 +2702,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -2788,167 +2757,167 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
